--- a/FinalProject/bin/Debug/Data.xlsx
+++ b/FinalProject/bin/Debug/Data.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CLOUDX\Courses\Nam3\C#\Final_Project\FinalProject\FinalProject\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C3B8F3-0E24-45B6-99F1-03D6D88335AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C0ACE7-1628-402C-B815-94B78BDD44AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Name</t>
   </si>
@@ -81,28 +90,56 @@
     <t>View</t>
   </si>
   <si>
-    <t>Describe</t>
-  </si>
-  <si>
     <t>Khu vườn ngôn từ</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Takt Op. Destiny</t>
+  </si>
+  <si>
+    <t>Thánh hiệp sĩ từ nơi tận cùng</t>
+  </si>
+  <si>
+    <t>Another</t>
+  </si>
+  <si>
+    <t>Sát thủ đệ nhất thế giới chuyển sinh thành quý tộc ở thế giới khác</t>
+  </si>
+  <si>
+    <t>Cát trắng Aquatope</t>
+  </si>
+  <si>
+    <t>Grand Blue</t>
+  </si>
+  <si>
+    <t>Arcane - Liên Minh Huyền Thoại</t>
+  </si>
+  <si>
+    <t>Hello world</t>
+  </si>
+  <si>
+    <t>Dr. Stone</t>
+  </si>
+  <si>
+    <t>Fate Stay Night</t>
+  </si>
+  <si>
+    <t>Komi không thể giao tiếp</t>
+  </si>
+  <si>
+    <t>Netsuzou TRap</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -125,17 +162,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -414,19 +448,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.42578125" customWidth="1"/>
+    <col min="1" max="1" width="60.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="22.140625" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" customWidth="1"/>
-    <col min="5" max="5" width="44.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -443,7 +479,7 @@
         <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -457,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -465,10 +501,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -503,7 +539,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>86</v>
       </c>
       <c r="B6">
@@ -594,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -658,7 +694,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -670,10 +706,176 @@
         <v>0</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C24" s="1"/>
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/FinalProject/bin/Debug/Data.xlsx
+++ b/FinalProject/bin/Debug/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CLOUDX\Courses\Nam3\C#\Final_Project\FinalProject\FinalProject\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C0ACE7-1628-402C-B815-94B78BDD44AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E1C905-70F3-45CB-8310-E7C852482177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="166">
   <si>
     <t>Name</t>
   </si>
@@ -93,56 +93,525 @@
     <t>Khu vườn ngôn từ</t>
   </si>
   <si>
+    <t>Takt Op. Destiny</t>
+  </si>
+  <si>
+    <t>Thánh hiệp sĩ từ nơi tận cùng</t>
+  </si>
+  <si>
+    <t>Another</t>
+  </si>
+  <si>
+    <t>Sát thủ đệ nhất thế giới chuyển sinh thành quý tộc ở thế giới khác</t>
+  </si>
+  <si>
+    <t>Cát trắng Aquatope</t>
+  </si>
+  <si>
+    <t>Grand Blue</t>
+  </si>
+  <si>
+    <t>Arcane - Liên Minh Huyền Thoại</t>
+  </si>
+  <si>
+    <t>Hello world</t>
+  </si>
+  <si>
+    <t>Dr. Stone</t>
+  </si>
+  <si>
+    <t>Fate Stay Night</t>
+  </si>
+  <si>
+    <t>Komi không thể giao tiếp</t>
+  </si>
+  <si>
+    <t>Netsuzou TRap</t>
+  </si>
+  <si>
+    <t>Thật Khó Để Yêu Một Otaku</t>
+  </si>
+  <si>
+    <t>Ở Một Góc Nhân Gian</t>
+  </si>
+  <si>
+    <t>Mieruko-chan</t>
+  </si>
+  <si>
+    <t>The Stranger by the Beach</t>
+  </si>
+  <si>
+    <t>Fate/Zero</t>
+  </si>
+  <si>
+    <t>Fate/Apocrypha</t>
+  </si>
+  <si>
+    <t>5 Centimeters Per Second</t>
+  </si>
+  <si>
+    <t>The Flower We Saw That Day</t>
+  </si>
+  <si>
+    <t>A Silent Voice</t>
+  </si>
+  <si>
+    <t>Ano Hi Mita Hana no Namae wo Bokutachi wa Mada Shiranai</t>
+  </si>
+  <si>
+    <t>Byousoku 5 Centimeter</t>
+  </si>
+  <si>
+    <t>Koe no Katachi</t>
+  </si>
+  <si>
+    <t>Into the Forest of Fireflies' Light</t>
+  </si>
+  <si>
+    <t>Hotarubi no Mori e</t>
+  </si>
+  <si>
+    <t>Your Name</t>
+  </si>
+  <si>
+    <t>Kimi no Na wa</t>
+  </si>
+  <si>
+    <t>Mushoku Tensei: Isekai Ittara Honki Dasu</t>
+  </si>
+  <si>
+    <t>Hoshi no Koe</t>
+  </si>
+  <si>
+    <t>Voices of a Distant Star</t>
+  </si>
+  <si>
+    <t>Imouto sae Ireba Ii</t>
+  </si>
+  <si>
+    <t>A Sister's All You Need</t>
+  </si>
+  <si>
+    <t>The Garden of Words</t>
+  </si>
+  <si>
+    <t>Koto no Ha no Niwa</t>
+  </si>
+  <si>
+    <t>Paladin of the End</t>
+  </si>
+  <si>
+    <t>The World's Finest Assassin Gets Reincarnated in Another World as an Aristocrat</t>
+  </si>
+  <si>
+    <t>Sekai Saikou no Ansatsusha, Isekai Kizoku ni Tensei suru</t>
+  </si>
+  <si>
+    <t>Aquatope of White Sand</t>
+  </si>
+  <si>
+    <t>Shiroi Suna no Aquatope</t>
+  </si>
+  <si>
+    <t>Arcane - League of Legends</t>
+  </si>
+  <si>
+    <t>Fate/Stay Night</t>
+  </si>
+  <si>
+    <t>Komi Can't Communicate</t>
+  </si>
+  <si>
+    <t>Komi-san wa</t>
+  </si>
+  <si>
+    <t>It's Difficult to Love an Otaku</t>
+  </si>
+  <si>
+    <t>Wotaku ni Koi wa Muzukashii</t>
+  </si>
+  <si>
+    <t>Supernatural, Comedy, Horror</t>
+  </si>
+  <si>
+    <t>NameSort</t>
+  </si>
+  <si>
+    <t>NameOther</t>
+  </si>
+  <si>
+    <t>NGNL</t>
+  </si>
+  <si>
+    <t>Mushoku Tensei</t>
+  </si>
+  <si>
+    <t>Ultimate Paladin, The Faraway Paladin</t>
+  </si>
+  <si>
+    <t>Xin Chào Thế Giới</t>
+  </si>
+  <si>
+    <t>Arcane</t>
+  </si>
+  <si>
+    <t>In This Corner of the World</t>
+  </si>
+  <si>
+    <t>Kono Sekai no Katasumi ni</t>
+  </si>
+  <si>
+    <t>Studio</t>
+  </si>
+  <si>
+    <t>A-1 Pictures</t>
+  </si>
+  <si>
+    <t>Mùa Xuân - 2018</t>
+  </si>
+  <si>
+    <t>Season</t>
+  </si>
+  <si>
+    <r>
+      <t>Romance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Comedy</t>
+    </r>
+  </si>
+  <si>
+    <t>OLM</t>
+  </si>
+  <si>
+    <t>Mùa Thu - 2021</t>
+  </si>
+  <si>
+    <t>Mùa Thu - 2016</t>
+  </si>
+  <si>
+    <t>MAPPA</t>
+  </si>
+  <si>
+    <t>Creators in Pack</t>
+  </si>
+  <si>
+    <t>Mùa Hạ - 2017</t>
+  </si>
+  <si>
+    <t>ufotable</t>
+  </si>
+  <si>
+    <t>Mùa Thu - 2014</t>
+  </si>
+  <si>
+    <r>
+      <t>Shounen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Supernatural, Fantasy, Magic, Action,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Shounen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, School, Slice of Life, Comedy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Shoujo Ai</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Drama</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Drama, Historical</t>
+    </r>
+  </si>
+  <si>
     <t>Type</t>
   </si>
   <si>
-    <t>Takt Op. Destiny</t>
-  </si>
-  <si>
-    <t>Thánh hiệp sĩ từ nơi tận cùng</t>
-  </si>
-  <si>
-    <t>Another</t>
-  </si>
-  <si>
-    <t>Sát thủ đệ nhất thế giới chuyển sinh thành quý tộc ở thế giới khác</t>
-  </si>
-  <si>
-    <t>Cát trắng Aquatope</t>
-  </si>
-  <si>
-    <t>Grand Blue</t>
-  </si>
-  <si>
-    <t>Arcane - Liên Minh Huyền Thoại</t>
-  </si>
-  <si>
-    <t>Hello world</t>
-  </si>
-  <si>
-    <t>Dr. Stone</t>
-  </si>
-  <si>
-    <t>Fate Stay Night</t>
-  </si>
-  <si>
-    <t>Komi không thể giao tiếp</t>
-  </si>
-  <si>
-    <t>Netsuzou TRap</t>
+    <t>TMS Entertainment</t>
+  </si>
+  <si>
+    <t>Mùa Hạ - 2019</t>
+  </si>
+  <si>
+    <t>Mùa Xuân - 2021</t>
+  </si>
+  <si>
+    <t>Riot</t>
+  </si>
+  <si>
+    <t>Cartoon, Action</t>
+  </si>
+  <si>
+    <t>Graphinica</t>
+  </si>
+  <si>
+    <t>Sci-Fi</t>
+  </si>
+  <si>
+    <t>Mùa Thu - 2019</t>
+  </si>
+  <si>
+    <t>Seinen, Slice of Life, Comedy</t>
+  </si>
+  <si>
+    <t>Mùa Hạ - 2018</t>
+  </si>
+  <si>
+    <t>Zero-G</t>
+  </si>
+  <si>
+    <t>SILVER LINK, Palette</t>
+  </si>
+  <si>
+    <t>Romance, Fantasy, Drama, Mystery, Action</t>
+  </si>
+  <si>
+    <t>Slice of Life, Drama</t>
+  </si>
+  <si>
+    <t>Mùa Hạ - 2021</t>
+  </si>
+  <si>
+    <t>P.A. Works</t>
+  </si>
+  <si>
+    <t>Shounen, Sci-Fi, Adventure</t>
+  </si>
+  <si>
+    <t>School, Thriller, Supernatural, Horror, Mystery</t>
+  </si>
+  <si>
+    <t>Mùa Đông - 2012</t>
+  </si>
+  <si>
+    <t>Fantasy, Adventure, Action</t>
+  </si>
+  <si>
+    <t>Children's Playground Entertainment</t>
+  </si>
+  <si>
+    <t>Fantasy, Music, Action</t>
+  </si>
+  <si>
+    <t>Madhouse, MAPPA</t>
+  </si>
+  <si>
+    <t>Mùa Xuân - 2013</t>
+  </si>
+  <si>
+    <t>The Answer Studio, CoMix Wave Films</t>
+  </si>
+  <si>
+    <t>Romance, Slice of Life, Psychological, Drama</t>
+  </si>
+  <si>
+    <t>Romance, Comedy</t>
+  </si>
+  <si>
+    <t>Mùa Thu - 2017</t>
+  </si>
+  <si>
+    <t>Silver Link</t>
+  </si>
+  <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>CoMix Wave Films</t>
+  </si>
+  <si>
+    <t>Mùa Đông - 2002</t>
+  </si>
+  <si>
+    <t>Romance, Space, Drama, Mecha</t>
+  </si>
+  <si>
+    <t>Production I.G</t>
+  </si>
+  <si>
+    <t>Mùa Đông - 2021</t>
+  </si>
+  <si>
+    <t>Fantasy, Drama, Magic</t>
+  </si>
+  <si>
+    <t>School, Romance, Supernatural, Drama</t>
+  </si>
+  <si>
+    <t>Mùa Hạ - 2016</t>
+  </si>
+  <si>
+    <t>Studio Bind</t>
+  </si>
+  <si>
+    <t>Mùa Xuân - 2014</t>
+  </si>
+  <si>
+    <t>Madhouse</t>
+  </si>
+  <si>
+    <t>Shoujo, Romance, Supernatural, Drama</t>
+  </si>
+  <si>
+    <t>Mùa Thu - 2011</t>
+  </si>
+  <si>
+    <t>Brain's Base</t>
+  </si>
+  <si>
+    <t>Mùa Xuân - 2017</t>
+  </si>
+  <si>
+    <t>Supernatural, Fantasy, Drama, Historical, Magic, Action</t>
+  </si>
+  <si>
+    <t>Kyoto Animation</t>
+  </si>
+  <si>
+    <t>Shounen, School, Drama</t>
+  </si>
+  <si>
+    <t>Sci-Fi, Drama</t>
+  </si>
+  <si>
+    <t>Mùa Xuân - 2011</t>
+  </si>
+  <si>
+    <t>Slice of Life, Supernatural, Drama</t>
+  </si>
+  <si>
+    <t>Mùa Xuân - 2007</t>
+  </si>
+  <si>
+    <t>Romance, Slice of Life, Drama</t>
+  </si>
+  <si>
+    <t>Supernatural, Fantasy, Action</t>
+  </si>
+  <si>
+    <t>Shounen Ai, Romance, Slice of Life</t>
+  </si>
+  <si>
+    <t>Studio Hibari</t>
+  </si>
+  <si>
+    <t>Mùa Xuân - 2020</t>
+  </si>
+  <si>
+    <t>Passione</t>
+  </si>
+  <si>
+    <t>Ogawa Yuuki</t>
+  </si>
+  <si>
+    <t>Nakayama Nobuhiro</t>
+  </si>
+  <si>
+    <t>Nagai Tatsuyuki</t>
+  </si>
+  <si>
+    <t>Asai Yoshiyuki</t>
+  </si>
+  <si>
+    <t>Ishizuka Atsuko</t>
+  </si>
+  <si>
+    <t>Okamoto Manabu</t>
+  </si>
+  <si>
+    <t>Kuroki Rui</t>
+  </si>
+  <si>
+    <t>Oonuma Shin</t>
+  </si>
+  <si>
+    <t>Itou Yuuki</t>
+  </si>
+  <si>
+    <t>Nobuta Yuu</t>
+  </si>
+  <si>
+    <t>Horikawa Kenji</t>
+  </si>
+  <si>
+    <t>Tamura Masafumi</t>
+  </si>
+  <si>
+    <t>Shinohara Toshiya</t>
+  </si>
+  <si>
+    <t>Watanabe Ayumu, Kawagoe Kazuki</t>
+  </si>
+  <si>
+    <t>Supernatural, Game, Fantasy, Ecchi, Comedy, Adventure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -165,9 +634,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,434 +918,984 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" customWidth="1"/>
-    <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="44.7109375" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="51" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4">
         <v>25</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>86</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
+        <v>86</v>
+      </c>
+      <c r="C6" s="1">
+        <v>86</v>
+      </c>
+      <c r="D6">
         <v>11</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7">
         <v>11</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" t="s">
+        <v>142</v>
+      </c>
+      <c r="J7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>140</v>
+      </c>
+      <c r="H8" t="s">
+        <v>139</v>
+      </c>
+      <c r="I8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9">
         <v>25</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" t="s">
+        <v>137</v>
+      </c>
+      <c r="J9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>1</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" t="s">
+        <v>136</v>
+      </c>
+      <c r="I10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11">
         <v>12</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>165</v>
+      </c>
+      <c r="H11" t="s">
+        <v>133</v>
+      </c>
+      <c r="I11" t="s">
+        <v>132</v>
+      </c>
+      <c r="J11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
         <v>1</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H12" t="s">
+        <v>123</v>
+      </c>
+      <c r="I12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13">
         <v>15</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>128</v>
+      </c>
+      <c r="H13" t="s">
+        <v>131</v>
+      </c>
+      <c r="I13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14">
         <v>18</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" t="s">
+        <v>126</v>
+      </c>
+      <c r="I14" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
         <v>1</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>125</v>
+      </c>
+      <c r="H15" t="s">
+        <v>123</v>
+      </c>
+      <c r="I15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16">
         <v>12</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>119</v>
+      </c>
+      <c r="H16" t="s">
+        <v>121</v>
+      </c>
+      <c r="I16" t="s">
+        <v>120</v>
+      </c>
+      <c r="J16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
         <v>1</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>118</v>
+      </c>
+      <c r="H17" t="s">
+        <v>117</v>
+      </c>
+      <c r="I17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" t="s">
+        <v>115</v>
+      </c>
+      <c r="I18" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B18">
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19">
         <v>7</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" t="s">
+        <v>113</v>
+      </c>
+      <c r="I19" t="s">
+        <v>81</v>
+      </c>
+      <c r="J19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B19">
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>12</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>110</v>
+      </c>
+      <c r="H20" t="s">
+        <v>108</v>
+      </c>
+      <c r="I20" t="s">
+        <v>111</v>
+      </c>
+      <c r="J20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21">
         <v>7</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20">
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H21" t="s">
+        <v>104</v>
+      </c>
+      <c r="I21" t="s">
+        <v>81</v>
+      </c>
+      <c r="J21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>106</v>
+      </c>
+      <c r="H22" t="s">
+        <v>108</v>
+      </c>
+      <c r="I22" t="s">
+        <v>107</v>
+      </c>
+      <c r="J22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23">
         <v>12</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21">
-        <v>7</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22">
-        <v>20</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>101</v>
+      </c>
+      <c r="H23" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>99</v>
+      </c>
+      <c r="H24" t="s">
+        <v>98</v>
+      </c>
+      <c r="I24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B23">
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>97</v>
+      </c>
+      <c r="H25" t="s">
+        <v>96</v>
+      </c>
+      <c r="I25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>109</v>
+      </c>
+      <c r="H26" t="s">
+        <v>93</v>
+      </c>
+      <c r="I26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" t="s">
+        <v>86</v>
+      </c>
+      <c r="I27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" t="s">
+        <v>80</v>
+      </c>
+      <c r="I28" t="s">
+        <v>81</v>
+      </c>
+      <c r="J28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29">
         <v>12</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>90</v>
+      </c>
+      <c r="H29" t="s">
+        <v>84</v>
+      </c>
+      <c r="I29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H30" t="s">
+        <v>76</v>
+      </c>
+      <c r="I30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
         <v>1</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26">
-        <v>4</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28">
-        <v>6</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29">
-        <v>12</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H31" t="s">
+        <v>83</v>
+      </c>
+      <c r="I31" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="https://www.imdb.com/title/tt11193002/" xr:uid="{63F71996-FAF8-49E3-A602-FAE5BC7D5551}"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://www.imdb.com/title/tt11193002/" xr:uid="{F353D9B8-85C0-45DA-BFE4-7E288006AC76}"/>
+    <hyperlink ref="B31" r:id="rId3" display="https://www.imdb.com/title/tt4769824/" xr:uid="{3E7B6A82-B8A3-421E-9028-51DFA2E8F2BA}"/>
+    <hyperlink ref="I30" r:id="rId4" tooltip="List anime mùa Xuân - 2018 Vietsub" display="http://animevietsub.tv/season/spring/2018/" xr:uid="{9053B205-B24A-4358-BAA8-348CB1470756}"/>
+    <hyperlink ref="I28" r:id="rId5" tooltip="List anime mùa Thu - 2021 Vietsub" display="http://animevietsub.tv/season/autumn/2021/" xr:uid="{50AF5543-AEF9-4AA3-B360-327D9E17EBBD}"/>
+    <hyperlink ref="I29" r:id="rId6" tooltip="List anime mùa Hạ - 2017 Vietsub" display="http://animevietsub.tv/season/summer/2017/" xr:uid="{8C1CA73C-0EAA-4592-BA36-4CBC505D6E88}"/>
+    <hyperlink ref="I27" r:id="rId7" tooltip="List anime mùa Thu - 2014 Vietsub" display="http://animevietsub.tv/season/autumn/2014/" xr:uid="{EFC91C1E-0FC0-4C09-9FD7-F7AE7FABF498}"/>
+    <hyperlink ref="G24" r:id="rId8" tooltip="Sci-Fi" display="http://animevietsub.tv/the-loai/sci-fi/" xr:uid="{427BB3F1-D6CB-4052-B747-CA3859C22A29}"/>
+    <hyperlink ref="I19" r:id="rId9" tooltip="List anime mùa Thu - 2021 Vietsub" display="http://animevietsub.tv/season/autumn/2021/" xr:uid="{2613E477-0F36-4FEA-ACBD-9AFEAA684FBD}"/>
+    <hyperlink ref="I31" r:id="rId10" tooltip="List anime mùa Thu - 2016 Vietsub" display="http://animevietsub.tv/season/autumn/2016/" xr:uid="{23CAD390-B46D-4FC9-BAA9-2FFF90D5B305}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/FinalProject/bin/Debug/Data.xlsx
+++ b/FinalProject/bin/Debug/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CLOUDX\Courses\Nam3\C#\Final_Project\FinalProject\FinalProject\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E1C905-70F3-45CB-8310-E7C852482177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FD2C00-41A7-4016-B203-6835EF147393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -920,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,7 +930,7 @@
     <col min="2" max="2" width="44.7109375" customWidth="1"/>
     <col min="3" max="3" width="37.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" customWidth="1"/>
     <col min="7" max="7" width="51" customWidth="1"/>
     <col min="8" max="8" width="30.28515625" customWidth="1"/>
@@ -1100,7 +1100,7 @@
         <v>86</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         <v>40</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1533,7 +1533,7 @@
         <v>21</v>
       </c>
       <c r="D20">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>58</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1687,7 +1687,7 @@
         <v>72</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>27</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E26">
         <v>0</v>

--- a/FinalProject/bin/Debug/Data.xlsx
+++ b/FinalProject/bin/Debug/Data.xlsx
@@ -1,617 +1,535 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CLOUDX\Courses\Nam3\C#\Final_Project\FinalProject\FinalProject\bin\Debug\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FD2C00-41A7-4016-B203-6835EF147393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>NameSort</t>
+  </si>
+  <si>
+    <t>NameOther</t>
+  </si>
+  <si>
+    <t>NumEp</t>
+  </si>
+  <si>
+    <t>NumMovie</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Studio</t>
+  </si>
+  <si>
+    <t>Season</t>
+  </si>
+  <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
     <t>Cô gái có thể nhìn thấy chúng</t>
   </si>
   <si>
+    <t>Mieruko-chan</t>
+  </si>
+  <si>
+    <t>Supernatural, Comedy, Horror</t>
+  </si>
+  <si>
+    <t>Passione</t>
+  </si>
+  <si>
+    <t>Mùa Thu - 2021</t>
+  </si>
+  <si>
+    <t>Ogawa Yuuki</t>
+  </si>
+  <si>
     <t>Người lạ bên bờ biển</t>
   </si>
   <si>
-    <t>NumEp</t>
+    <t>The Stranger by the Beach</t>
+  </si>
+  <si>
+    <t>Shounen Ai, Romance, Slice of Life</t>
+  </si>
+  <si>
+    <t>Studio Hibari</t>
+  </si>
+  <si>
+    <t>Mùa Xuân - 2020</t>
+  </si>
+  <si>
+    <t>Fate Zero</t>
+  </si>
+  <si>
+    <t>Fate/Zero</t>
+  </si>
+  <si>
+    <t>Supernatural, Fantasy, Action</t>
+  </si>
+  <si>
+    <t>ufotable</t>
+  </si>
+  <si>
+    <t>Mùa Thu - 2011</t>
   </si>
   <si>
     <t>5 Centimet trên giây</t>
   </si>
   <si>
+    <t>5 Centimeters Per Second</t>
+  </si>
+  <si>
+    <t>Byousoku 5 Centimeter</t>
+  </si>
+  <si>
+    <t>Romance, Slice of Life, Drama</t>
+  </si>
+  <si>
+    <t>CoMix Wave Films</t>
+  </si>
+  <si>
+    <t>Mùa Xuân - 2007</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>Sci-Fi, Drama</t>
+  </si>
+  <si>
+    <t>A-1 Pictures</t>
+  </si>
+  <si>
+    <t>Mùa Xuân - 2021</t>
+  </si>
+  <si>
+    <t>Nakayama Nobuhiro</t>
+  </si>
+  <si>
     <t>Đóa hoa ngày ấy chúng mình vẫn chưa biết tên</t>
   </si>
   <si>
+    <t>The Flower We Saw That Day</t>
+  </si>
+  <si>
+    <t>Ano Hi Mita Hana no Namae wo Bokutachi wa Mada Shiranai</t>
+  </si>
+  <si>
+    <t>Slice of Life, Supernatural, Drama</t>
+  </si>
+  <si>
+    <t>Mùa Xuân - 2011</t>
+  </si>
+  <si>
+    <t>Nagai Tatsuyuki</t>
+  </si>
+  <si>
     <t>Dáng hình âm thanh</t>
   </si>
   <si>
+    <t>A Silent Voice</t>
+  </si>
+  <si>
+    <t>Koe no Katachi</t>
+  </si>
+  <si>
+    <t>Shounen, School, Drama</t>
+  </si>
+  <si>
+    <t>Kyoto Animation</t>
+  </si>
+  <si>
+    <t>Mùa Hạ - 2016</t>
+  </si>
+  <si>
     <t>Fate Apocrypha</t>
   </si>
   <si>
-    <t>NumMovie</t>
+    <t>Fate/Apocrypha</t>
+  </si>
+  <si>
+    <t>Supernatural, Fantasy, Drama, Historical, Magic, Action</t>
+  </si>
+  <si>
+    <t>Mùa Xuân - 2017</t>
+  </si>
+  <si>
+    <t>Asai Yoshiyuki</t>
   </si>
   <si>
     <t>Lạc vào khu rừng đom đóm</t>
   </si>
   <si>
+    <t>Into the Forest of Fireflies' Light</t>
+  </si>
+  <si>
+    <t>Hotarubi no Mori e</t>
+  </si>
+  <si>
+    <t>Shoujo, Romance, Supernatural, Drama</t>
+  </si>
+  <si>
+    <t>Brain's Base</t>
+  </si>
+  <si>
     <t>No game no life</t>
   </si>
   <si>
+    <t>NGNL</t>
+  </si>
+  <si>
+    <t>Supernatural, Game, Fantasy, Ecchi, Comedy, Adventure</t>
+  </si>
+  <si>
+    <t>Madhouse</t>
+  </si>
+  <si>
+    <t>Mùa Xuân - 2014</t>
+  </si>
+  <si>
+    <t>Ishizuka Atsuko</t>
+  </si>
+  <si>
     <t>Tên cậu là gì</t>
   </si>
   <si>
+    <t>Your Name</t>
+  </si>
+  <si>
+    <t>Kimi no Na wa</t>
+  </si>
+  <si>
+    <t>School, Romance, Supernatural, Drama</t>
+  </si>
+  <si>
     <t>Thất nghiệp chuyển sinh</t>
   </si>
   <si>
+    <t>Mushoku Tensei: Isekai Ittara Honki Dasu</t>
+  </si>
+  <si>
+    <t>Mushoku Tensei</t>
+  </si>
+  <si>
+    <t>Fantasy, Drama, Magic</t>
+  </si>
+  <si>
+    <t>Studio Bind</t>
+  </si>
+  <si>
+    <t>Mùa Đông - 2021</t>
+  </si>
+  <si>
+    <t>Okamoto Manabu</t>
+  </si>
+  <si>
     <t>The Beginning</t>
   </si>
   <si>
+    <t>Sci-Fi</t>
+  </si>
+  <si>
+    <t>Production I.G</t>
+  </si>
+  <si>
+    <t>Mùa Xuân - 2018</t>
+  </si>
+  <si>
+    <t>Kuroki Rui</t>
+  </si>
+  <si>
     <t>Tiếng gọi từ vì sao xa</t>
   </si>
   <si>
+    <t>Voices of a Distant Star</t>
+  </si>
+  <si>
+    <t>Hoshi no Koe</t>
+  </si>
+  <si>
+    <t>Romance, Space, Drama, Mecha</t>
+  </si>
+  <si>
+    <t>Mùa Đông - 2002</t>
+  </si>
+  <si>
     <t>Tôi chỉ cần em gái mà thôi</t>
   </si>
   <si>
-    <t>Fate Zero</t>
-  </si>
-  <si>
-    <t>View</t>
+    <t>A Sister's All You Need</t>
+  </si>
+  <si>
+    <t>Imouto sae Ireba Ii</t>
+  </si>
+  <si>
+    <t>Romance, Comedy</t>
+  </si>
+  <si>
+    <t>Silver Link</t>
+  </si>
+  <si>
+    <t>Mùa Thu - 2017</t>
+  </si>
+  <si>
+    <t>Oonuma Shin</t>
   </si>
   <si>
     <t>Khu vườn ngôn từ</t>
   </si>
   <si>
+    <t>The Garden of Words</t>
+  </si>
+  <si>
+    <t>Koto no Ha no Niwa</t>
+  </si>
+  <si>
+    <t>Romance, Slice of Life, Psychological, Drama</t>
+  </si>
+  <si>
+    <t>The Answer Studio, CoMix Wave Films</t>
+  </si>
+  <si>
+    <t>Mùa Xuân - 2013</t>
+  </si>
+  <si>
     <t>Takt Op. Destiny</t>
   </si>
   <si>
+    <t>Fantasy, Music, Action</t>
+  </si>
+  <si>
+    <t>Madhouse, MAPPA</t>
+  </si>
+  <si>
+    <t>Itou Yuuki</t>
+  </si>
+  <si>
     <t>Thánh hiệp sĩ từ nơi tận cùng</t>
   </si>
   <si>
+    <t>Paladin of the End</t>
+  </si>
+  <si>
+    <t>Ultimate Paladin, The Faraway Paladin</t>
+  </si>
+  <si>
+    <t>Fantasy, Adventure, Action</t>
+  </si>
+  <si>
+    <t>Children's Playground Entertainment</t>
+  </si>
+  <si>
+    <t>Nobuta Yuu</t>
+  </si>
+  <si>
     <t>Another</t>
   </si>
   <si>
+    <t>School, Thriller, Supernatural, Horror, Mystery</t>
+  </si>
+  <si>
+    <t>P.A. Works</t>
+  </si>
+  <si>
+    <t>Mùa Đông - 2012</t>
+  </si>
+  <si>
+    <t>Horikawa Kenji</t>
+  </si>
+  <si>
     <t>Sát thủ đệ nhất thế giới chuyển sinh thành quý tộc ở thế giới khác</t>
   </si>
   <si>
+    <t>The World's Finest Assassin Gets Reincarnated in Another World as an Aristocrat</t>
+  </si>
+  <si>
+    <t>Sekai Saikou no Ansatsusha, Isekai Kizoku ni Tensei suru</t>
+  </si>
+  <si>
+    <t>Romance, Fantasy, Drama, Mystery, Action</t>
+  </si>
+  <si>
+    <t>SILVER LINK, Palette</t>
+  </si>
+  <si>
+    <t>Tamura Masafumi</t>
+  </si>
+  <si>
     <t>Cát trắng Aquatope</t>
   </si>
   <si>
+    <t>Aquatope of White Sand</t>
+  </si>
+  <si>
+    <t>Shiroi Suna no Aquatope</t>
+  </si>
+  <si>
+    <t>Slice of Life, Drama</t>
+  </si>
+  <si>
+    <t>Mùa Hạ - 2021</t>
+  </si>
+  <si>
+    <t>Shinohara Toshiya</t>
+  </si>
+  <si>
     <t>Grand Blue</t>
   </si>
   <si>
+    <t>Seinen, Slice of Life, Comedy</t>
+  </si>
+  <si>
+    <t>Zero-G</t>
+  </si>
+  <si>
+    <t>Mùa Hạ - 2018</t>
+  </si>
+  <si>
+    <t>Hello world</t>
+  </si>
+  <si>
+    <t>Xin Chào Thế Giới</t>
+  </si>
+  <si>
+    <t>Graphinica</t>
+  </si>
+  <si>
+    <t>Mùa Thu - 2019</t>
+  </si>
+  <si>
     <t>Arcane - Liên Minh Huyền Thoại</t>
   </si>
   <si>
-    <t>Hello world</t>
+    <t>Arcane - League of Legends</t>
+  </si>
+  <si>
+    <t>Arcane</t>
+  </si>
+  <si>
+    <t>Cartoon, Action</t>
+  </si>
+  <si>
+    <t>Riot</t>
   </si>
   <si>
     <t>Dr. Stone</t>
   </si>
   <si>
+    <t>Shounen, Sci-Fi, Adventure</t>
+  </si>
+  <si>
+    <t>TMS Entertainment</t>
+  </si>
+  <si>
+    <t>Mùa Hạ - 2019</t>
+  </si>
+  <si>
     <t>Fate Stay Night</t>
   </si>
   <si>
+    <t>Fate/Stay Night</t>
+  </si>
+  <si>
+    <t>Shounen, Supernatural, Fantasy, Magic, Action,</t>
+  </si>
+  <si>
+    <t>Mùa Thu - 2014</t>
+  </si>
+  <si>
     <t>Komi không thể giao tiếp</t>
   </si>
   <si>
+    <t>Komi Can't Communicate</t>
+  </si>
+  <si>
+    <t>Komi-san wa</t>
+  </si>
+  <si>
+    <t>Shounen, School, Slice of Life, Comedy</t>
+  </si>
+  <si>
+    <t>OLM</t>
+  </si>
+  <si>
+    <t>Watanabe Ayumu, Kawagoe Kazuki</t>
+  </si>
+  <si>
     <t>Netsuzou TRap</t>
   </si>
   <si>
+    <t>Shoujo Ai, Drama</t>
+  </si>
+  <si>
+    <t>Creators in Pack</t>
+  </si>
+  <si>
+    <t>Mùa Hạ - 2017</t>
+  </si>
+  <si>
     <t>Thật Khó Để Yêu Một Otaku</t>
   </si>
   <si>
+    <t>It's Difficult to Love an Otaku</t>
+  </si>
+  <si>
+    <t>Wotaku ni Koi wa Muzukashii</t>
+  </si>
+  <si>
+    <t>Romance, Comedy</t>
+  </si>
+  <si>
     <t>Ở Một Góc Nhân Gian</t>
   </si>
   <si>
-    <t>Mieruko-chan</t>
-  </si>
-  <si>
-    <t>The Stranger by the Beach</t>
-  </si>
-  <si>
-    <t>Fate/Zero</t>
-  </si>
-  <si>
-    <t>Fate/Apocrypha</t>
-  </si>
-  <si>
-    <t>5 Centimeters Per Second</t>
-  </si>
-  <si>
-    <t>The Flower We Saw That Day</t>
-  </si>
-  <si>
-    <t>A Silent Voice</t>
-  </si>
-  <si>
-    <t>Ano Hi Mita Hana no Namae wo Bokutachi wa Mada Shiranai</t>
-  </si>
-  <si>
-    <t>Byousoku 5 Centimeter</t>
-  </si>
-  <si>
-    <t>Koe no Katachi</t>
-  </si>
-  <si>
-    <t>Into the Forest of Fireflies' Light</t>
-  </si>
-  <si>
-    <t>Hotarubi no Mori e</t>
-  </si>
-  <si>
-    <t>Your Name</t>
-  </si>
-  <si>
-    <t>Kimi no Na wa</t>
-  </si>
-  <si>
-    <t>Mushoku Tensei: Isekai Ittara Honki Dasu</t>
-  </si>
-  <si>
-    <t>Hoshi no Koe</t>
-  </si>
-  <si>
-    <t>Voices of a Distant Star</t>
-  </si>
-  <si>
-    <t>Imouto sae Ireba Ii</t>
-  </si>
-  <si>
-    <t>A Sister's All You Need</t>
-  </si>
-  <si>
-    <t>The Garden of Words</t>
-  </si>
-  <si>
-    <t>Koto no Ha no Niwa</t>
-  </si>
-  <si>
-    <t>Paladin of the End</t>
-  </si>
-  <si>
-    <t>The World's Finest Assassin Gets Reincarnated in Another World as an Aristocrat</t>
-  </si>
-  <si>
-    <t>Sekai Saikou no Ansatsusha, Isekai Kizoku ni Tensei suru</t>
-  </si>
-  <si>
-    <t>Aquatope of White Sand</t>
-  </si>
-  <si>
-    <t>Shiroi Suna no Aquatope</t>
-  </si>
-  <si>
-    <t>Arcane - League of Legends</t>
-  </si>
-  <si>
-    <t>Fate/Stay Night</t>
-  </si>
-  <si>
-    <t>Komi Can't Communicate</t>
-  </si>
-  <si>
-    <t>Komi-san wa</t>
-  </si>
-  <si>
-    <t>It's Difficult to Love an Otaku</t>
-  </si>
-  <si>
-    <t>Wotaku ni Koi wa Muzukashii</t>
-  </si>
-  <si>
-    <t>Supernatural, Comedy, Horror</t>
-  </si>
-  <si>
-    <t>NameSort</t>
-  </si>
-  <si>
-    <t>NameOther</t>
-  </si>
-  <si>
-    <t>NGNL</t>
-  </si>
-  <si>
-    <t>Mushoku Tensei</t>
-  </si>
-  <si>
-    <t>Ultimate Paladin, The Faraway Paladin</t>
-  </si>
-  <si>
-    <t>Xin Chào Thế Giới</t>
-  </si>
-  <si>
-    <t>Arcane</t>
-  </si>
-  <si>
     <t>In This Corner of the World</t>
   </si>
   <si>
     <t>Kono Sekai no Katasumi ni</t>
   </si>
   <si>
-    <t>Studio</t>
-  </si>
-  <si>
-    <t>A-1 Pictures</t>
-  </si>
-  <si>
-    <t>Mùa Xuân - 2018</t>
-  </si>
-  <si>
-    <t>Season</t>
-  </si>
-  <si>
-    <r>
-      <t>Romance</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, Comedy</t>
-    </r>
-  </si>
-  <si>
-    <t>OLM</t>
-  </si>
-  <si>
-    <t>Mùa Thu - 2021</t>
+    <t xml:space="preserve"> Drama, Historical</t>
+  </si>
+  <si>
+    <t>MAPPA</t>
   </si>
   <si>
     <t>Mùa Thu - 2016</t>
-  </si>
-  <si>
-    <t>MAPPA</t>
-  </si>
-  <si>
-    <t>Creators in Pack</t>
-  </si>
-  <si>
-    <t>Mùa Hạ - 2017</t>
-  </si>
-  <si>
-    <t>ufotable</t>
-  </si>
-  <si>
-    <t>Mùa Thu - 2014</t>
-  </si>
-  <si>
-    <r>
-      <t>Shounen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, Supernatural, Fantasy, Magic, Action,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Shounen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, School, Slice of Life, Comedy</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Shoujo Ai</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, Drama</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Drama, Historical</t>
-    </r>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>TMS Entertainment</t>
-  </si>
-  <si>
-    <t>Mùa Hạ - 2019</t>
-  </si>
-  <si>
-    <t>Mùa Xuân - 2021</t>
-  </si>
-  <si>
-    <t>Riot</t>
-  </si>
-  <si>
-    <t>Cartoon, Action</t>
-  </si>
-  <si>
-    <t>Graphinica</t>
-  </si>
-  <si>
-    <t>Sci-Fi</t>
-  </si>
-  <si>
-    <t>Mùa Thu - 2019</t>
-  </si>
-  <si>
-    <t>Seinen, Slice of Life, Comedy</t>
-  </si>
-  <si>
-    <t>Mùa Hạ - 2018</t>
-  </si>
-  <si>
-    <t>Zero-G</t>
-  </si>
-  <si>
-    <t>SILVER LINK, Palette</t>
-  </si>
-  <si>
-    <t>Romance, Fantasy, Drama, Mystery, Action</t>
-  </si>
-  <si>
-    <t>Slice of Life, Drama</t>
-  </si>
-  <si>
-    <t>Mùa Hạ - 2021</t>
-  </si>
-  <si>
-    <t>P.A. Works</t>
-  </si>
-  <si>
-    <t>Shounen, Sci-Fi, Adventure</t>
-  </si>
-  <si>
-    <t>School, Thriller, Supernatural, Horror, Mystery</t>
-  </si>
-  <si>
-    <t>Mùa Đông - 2012</t>
-  </si>
-  <si>
-    <t>Fantasy, Adventure, Action</t>
-  </si>
-  <si>
-    <t>Children's Playground Entertainment</t>
-  </si>
-  <si>
-    <t>Fantasy, Music, Action</t>
-  </si>
-  <si>
-    <t>Madhouse, MAPPA</t>
-  </si>
-  <si>
-    <t>Mùa Xuân - 2013</t>
-  </si>
-  <si>
-    <t>The Answer Studio, CoMix Wave Films</t>
-  </si>
-  <si>
-    <t>Romance, Slice of Life, Psychological, Drama</t>
-  </si>
-  <si>
-    <t>Romance, Comedy</t>
-  </si>
-  <si>
-    <t>Mùa Thu - 2017</t>
-  </si>
-  <si>
-    <t>Silver Link</t>
-  </si>
-  <si>
-    <t>Director</t>
-  </si>
-  <si>
-    <t>CoMix Wave Films</t>
-  </si>
-  <si>
-    <t>Mùa Đông - 2002</t>
-  </si>
-  <si>
-    <t>Romance, Space, Drama, Mecha</t>
-  </si>
-  <si>
-    <t>Production I.G</t>
-  </si>
-  <si>
-    <t>Mùa Đông - 2021</t>
-  </si>
-  <si>
-    <t>Fantasy, Drama, Magic</t>
-  </si>
-  <si>
-    <t>School, Romance, Supernatural, Drama</t>
-  </si>
-  <si>
-    <t>Mùa Hạ - 2016</t>
-  </si>
-  <si>
-    <t>Studio Bind</t>
-  </si>
-  <si>
-    <t>Mùa Xuân - 2014</t>
-  </si>
-  <si>
-    <t>Madhouse</t>
-  </si>
-  <si>
-    <t>Shoujo, Romance, Supernatural, Drama</t>
-  </si>
-  <si>
-    <t>Mùa Thu - 2011</t>
-  </si>
-  <si>
-    <t>Brain's Base</t>
-  </si>
-  <si>
-    <t>Mùa Xuân - 2017</t>
-  </si>
-  <si>
-    <t>Supernatural, Fantasy, Drama, Historical, Magic, Action</t>
-  </si>
-  <si>
-    <t>Kyoto Animation</t>
-  </si>
-  <si>
-    <t>Shounen, School, Drama</t>
-  </si>
-  <si>
-    <t>Sci-Fi, Drama</t>
-  </si>
-  <si>
-    <t>Mùa Xuân - 2011</t>
-  </si>
-  <si>
-    <t>Slice of Life, Supernatural, Drama</t>
-  </si>
-  <si>
-    <t>Mùa Xuân - 2007</t>
-  </si>
-  <si>
-    <t>Romance, Slice of Life, Drama</t>
-  </si>
-  <si>
-    <t>Supernatural, Fantasy, Action</t>
-  </si>
-  <si>
-    <t>Shounen Ai, Romance, Slice of Life</t>
-  </si>
-  <si>
-    <t>Studio Hibari</t>
-  </si>
-  <si>
-    <t>Mùa Xuân - 2020</t>
-  </si>
-  <si>
-    <t>Passione</t>
-  </si>
-  <si>
-    <t>Ogawa Yuuki</t>
-  </si>
-  <si>
-    <t>Nakayama Nobuhiro</t>
-  </si>
-  <si>
-    <t>Nagai Tatsuyuki</t>
-  </si>
-  <si>
-    <t>Asai Yoshiyuki</t>
-  </si>
-  <si>
-    <t>Ishizuka Atsuko</t>
-  </si>
-  <si>
-    <t>Okamoto Manabu</t>
-  </si>
-  <si>
-    <t>Kuroki Rui</t>
-  </si>
-  <si>
-    <t>Oonuma Shin</t>
-  </si>
-  <si>
-    <t>Itou Yuuki</t>
-  </si>
-  <si>
-    <t>Nobuta Yuu</t>
-  </si>
-  <si>
-    <t>Horikawa Kenji</t>
-  </si>
-  <si>
-    <t>Tamura Masafumi</t>
-  </si>
-  <si>
-    <t>Shinohara Toshiya</t>
-  </si>
-  <si>
-    <t>Watanabe Ayumu, Kawagoe Kazuki</t>
-  </si>
-  <si>
-    <t>Supernatural, Game, Fantasy, Ecchi, Comedy, Adventure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -634,22 +552,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -672,7 +584,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -684,7 +596,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -731,6 +643,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -766,6 +695,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -917,68 +863,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+  <sheetPr/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="60.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.7109375" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="51" customWidth="1"/>
-    <col min="8" max="8" width="30.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" t="s">
-        <v>78</v>
-      </c>
       <c r="J1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -987,30 +923,33 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>245977</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1019,27 +958,31 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>52783</v>
       </c>
       <c r="G3" t="s">
-        <v>147</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="J3"/>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D4">
         <v>25</v>
@@ -1048,27 +991,31 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1243849</v>
       </c>
       <c r="G4" t="s">
-        <v>146</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1077,27 +1024,31 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>50392</v>
       </c>
       <c r="G5" t="s">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>86</v>
-      </c>
-      <c r="B6" s="1">
-        <v>86</v>
-      </c>
-      <c r="C6" s="1">
-        <v>86</v>
+        <v>32</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -1106,27 +1057,30 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>255416</v>
       </c>
       <c r="G6" t="s">
-        <v>141</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="J6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
         <v>40</v>
@@ -1138,30 +1092,33 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>76593</v>
       </c>
       <c r="G7" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="J7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1170,27 +1127,31 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>168190</v>
       </c>
       <c r="G8" t="s">
-        <v>140</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D9">
         <v>25</v>
@@ -1199,30 +1160,33 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2460756</v>
       </c>
       <c r="G9" t="s">
-        <v>138</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="I9" t="s">
-        <v>137</v>
+        <v>53</v>
       </c>
       <c r="J9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1231,27 +1195,31 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>50118</v>
       </c>
       <c r="G10" t="s">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="H10" t="s">
-        <v>136</v>
+        <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -1260,30 +1228,33 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>416274</v>
       </c>
       <c r="G11" t="s">
-        <v>165</v>
+        <v>62</v>
       </c>
       <c r="H11" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="I11" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="J11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1292,27 +1263,31 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>147362</v>
       </c>
       <c r="G12" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="H12" t="s">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="I12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="J12"/>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D13">
         <v>15</v>
@@ -1321,30 +1296,33 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>858575</v>
       </c>
       <c r="G13" t="s">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="H13" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="J13" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D14">
         <v>18</v>
@@ -1353,30 +1331,33 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>71054</v>
       </c>
       <c r="G14" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="I14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1385,27 +1366,31 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>15929</v>
       </c>
       <c r="G15" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="I15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="J15"/>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="D16">
         <v>12</v>
@@ -1414,30 +1399,33 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>242087</v>
       </c>
       <c r="G16" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="I16" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="J16" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1446,27 +1434,31 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>48969</v>
       </c>
       <c r="G17" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="H17" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="I17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="J17"/>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="D18">
         <v>7</v>
@@ -1475,30 +1467,33 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>749916</v>
       </c>
       <c r="G18" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="H18" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="I18" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="J18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="D19">
         <v>7</v>
@@ -1507,30 +1502,33 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>474407</v>
       </c>
       <c r="G19" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H19" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I19" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="J19" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -1539,30 +1537,33 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>108050</v>
       </c>
       <c r="G20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H20" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="I20" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J20" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="D21">
         <v>7</v>
@@ -1571,30 +1572,33 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>854961</v>
       </c>
       <c r="G21" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="H21" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="I21" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="J21" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="D22">
         <v>5</v>
@@ -1603,30 +1607,33 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>54298</v>
       </c>
       <c r="G22" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="H22" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="I22" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="J22" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="D23">
         <v>12</v>
@@ -1635,27 +1642,31 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>541285</v>
       </c>
       <c r="G23" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="H23" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="I23" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="J23"/>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1664,27 +1675,31 @@
         <v>1</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>47724</v>
       </c>
       <c r="G24" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="I24" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="J24"/>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -1693,27 +1708,31 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>149883</v>
       </c>
       <c r="G25" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="H25" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="I25" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="J25"/>
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -1722,27 +1741,31 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>2708492</v>
       </c>
       <c r="G26" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="H26" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="I26" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="J26"/>
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>144</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -1751,27 +1774,31 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>273830</v>
       </c>
       <c r="G27" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="H27" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="I27" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="J27"/>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="D28">
         <v>6</v>
@@ -1780,30 +1807,33 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>892568</v>
       </c>
       <c r="G28" t="s">
-        <v>89</v>
+        <v>151</v>
       </c>
       <c r="H28" t="s">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="I28" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="J28" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="D29">
         <v>12</v>
@@ -1812,27 +1842,31 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>106018</v>
       </c>
       <c r="G29" t="s">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="H29" t="s">
-        <v>84</v>
+        <v>156</v>
       </c>
       <c r="I29" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="J29"/>
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>158</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>159</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -1841,27 +1875,31 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>463303</v>
       </c>
       <c r="G30" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="H30" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="I30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="J30"/>
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>74</v>
+        <v>163</v>
+      </c>
+      <c r="C31" t="s">
+        <v>164</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1870,32 +1908,24 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>9361</v>
       </c>
       <c r="G31" t="s">
-        <v>91</v>
+        <v>165</v>
       </c>
       <c r="H31" t="s">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="I31" t="s">
-        <v>82</v>
+        <v>167</v>
+      </c>
+      <c r="J31"/>
+      <c r="K31">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://www.imdb.com/title/tt11193002/" xr:uid="{63F71996-FAF8-49E3-A602-FAE5BC7D5551}"/>
-    <hyperlink ref="C3" r:id="rId2" display="https://www.imdb.com/title/tt11193002/" xr:uid="{F353D9B8-85C0-45DA-BFE4-7E288006AC76}"/>
-    <hyperlink ref="B31" r:id="rId3" display="https://www.imdb.com/title/tt4769824/" xr:uid="{3E7B6A82-B8A3-421E-9028-51DFA2E8F2BA}"/>
-    <hyperlink ref="I30" r:id="rId4" tooltip="List anime mùa Xuân - 2018 Vietsub" display="http://animevietsub.tv/season/spring/2018/" xr:uid="{9053B205-B24A-4358-BAA8-348CB1470756}"/>
-    <hyperlink ref="I28" r:id="rId5" tooltip="List anime mùa Thu - 2021 Vietsub" display="http://animevietsub.tv/season/autumn/2021/" xr:uid="{50AF5543-AEF9-4AA3-B360-327D9E17EBBD}"/>
-    <hyperlink ref="I29" r:id="rId6" tooltip="List anime mùa Hạ - 2017 Vietsub" display="http://animevietsub.tv/season/summer/2017/" xr:uid="{8C1CA73C-0EAA-4592-BA36-4CBC505D6E88}"/>
-    <hyperlink ref="I27" r:id="rId7" tooltip="List anime mùa Thu - 2014 Vietsub" display="http://animevietsub.tv/season/autumn/2014/" xr:uid="{EFC91C1E-0FC0-4C09-9FD7-F7AE7FABF498}"/>
-    <hyperlink ref="G24" r:id="rId8" tooltip="Sci-Fi" display="http://animevietsub.tv/the-loai/sci-fi/" xr:uid="{427BB3F1-D6CB-4052-B747-CA3859C22A29}"/>
-    <hyperlink ref="I19" r:id="rId9" tooltip="List anime mùa Thu - 2021 Vietsub" display="http://animevietsub.tv/season/autumn/2021/" xr:uid="{2613E477-0F36-4FEA-ACBD-9AFEAA684FBD}"/>
-    <hyperlink ref="I31" r:id="rId10" tooltip="List anime mùa Thu - 2016 Vietsub" display="http://animevietsub.tv/season/autumn/2016/" xr:uid="{23CAD390-B46D-4FC9-BAA9-2FFF90D5B305}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup orientation="portrait" scale="100" paperSize="9" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </worksheet>
 </file>
--- a/FinalProject/bin/Debug/Data.xlsx
+++ b/FinalProject/bin/Debug/Data.xlsx
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1243849</v>
+        <v>1243850</v>
       </c>
       <c r="G4" t="s">
         <v>24</v>

--- a/FinalProject/bin/Debug/Data.xlsx
+++ b/FinalProject/bin/Debug/Data.xlsx
@@ -958,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>52783</v>
+        <v>52784</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>

--- a/FinalProject/bin/Debug/Data.xlsx
+++ b/FinalProject/bin/Debug/Data.xlsx
@@ -958,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>52784</v>
+        <v>52785</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1243850</v>
+        <v>1243851</v>
       </c>
       <c r="G4" t="s">
         <v>24</v>

--- a/FinalProject/bin/Debug/Data.xlsx
+++ b/FinalProject/bin/Debug/Data.xlsx
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>245977</v>
+        <v>245978</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>

--- a/FinalProject/bin/Debug/Data.xlsx
+++ b/FinalProject/bin/Debug/Data.xlsx
@@ -1434,7 +1434,7 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>48969</v>
+        <v>48970</v>
       </c>
       <c r="G17" t="s">
         <v>97</v>

--- a/FinalProject/bin/Debug/Data.xlsx
+++ b/FinalProject/bin/Debug/Data.xlsx
@@ -938,7 +938,7 @@
         <v>16</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="3">
@@ -971,7 +971,7 @@
       </c>
       <c r="J3"/>
       <c r="K3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="J4"/>
       <c r="K4">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="5">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="J5"/>
       <c r="K5">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1072,7 +1072,7 @@
         <v>37</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1107,7 +1107,7 @@
         <v>43</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>3.8999999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="J8"/>
       <c r="K8">
-        <v>0</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="9">
@@ -1175,7 +1175,7 @@
         <v>54</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>4.7000000000000002</v>
       </c>
     </row>
     <row r="10">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="J10"/>
       <c r="K10">
-        <v>0</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="11">
@@ -1243,7 +1243,7 @@
         <v>65</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>4.7000000000000002</v>
       </c>
     </row>
     <row r="12">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="J12"/>
       <c r="K12">
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="13">
@@ -1311,7 +1311,7 @@
         <v>76</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1346,7 +1346,7 @@
         <v>81</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>3.7000000000000002</v>
       </c>
     </row>
     <row r="15">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="J15"/>
       <c r="K15">
-        <v>0</v>
+        <v>4.2000000000000002</v>
       </c>
     </row>
     <row r="16">
@@ -1414,7 +1414,7 @@
         <v>93</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>3.6000000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="J17"/>
       <c r="K17">
-        <v>0</v>
+        <v>4.2999999999999998</v>
       </c>
     </row>
     <row r="18">
@@ -1482,7 +1482,7 @@
         <v>103</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>4.7000000000000002</v>
       </c>
     </row>
     <row r="19">
@@ -1517,7 +1517,7 @@
         <v>109</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1552,7 +1552,7 @@
         <v>114</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="21">
@@ -1587,7 +1587,7 @@
         <v>120</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1622,7 +1622,7 @@
         <v>126</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="23">
@@ -1655,7 +1655,7 @@
       </c>
       <c r="J23"/>
       <c r="K23">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="J24"/>
       <c r="K24">
-        <v>0</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="25">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="J25"/>
       <c r="K25">
-        <v>0</v>
+        <v>4.2000000000000002</v>
       </c>
     </row>
     <row r="26">
@@ -1754,7 +1754,7 @@
       </c>
       <c r="J26"/>
       <c r="K26">
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="27">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="J27"/>
       <c r="K27">
-        <v>0</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="28">
@@ -1822,7 +1822,7 @@
         <v>153</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1855,7 +1855,7 @@
       </c>
       <c r="J29"/>
       <c r="K29">
-        <v>0</v>
+        <v>3.8999999999999999</v>
       </c>
     </row>
     <row r="30">
@@ -1888,7 +1888,7 @@
       </c>
       <c r="J30"/>
       <c r="K30">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="J31"/>
       <c r="K31">
-        <v>0</v>
+        <v>4.2000000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/FinalProject/bin/Debug/Data.xlsx
+++ b/FinalProject/bin/Debug/Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
     <t>Name</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Rating</t>
+  </si>
+  <si>
+    <t>NumRating</t>
   </si>
   <si>
     <t>Cô gái có thể nhìn thấy chúng</t>
@@ -865,7 +868,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
   <sheetPr/>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
   </sheetViews>
@@ -905,16 +908,19 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -926,30 +932,33 @@
         <v>245978</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2">
-        <v>4.5</v>
+        <v>6.25</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -961,28 +970,31 @@
         <v>52785</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3"/>
       <c r="K3">
         <v>4</v>
       </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>25</v>
@@ -994,28 +1006,31 @@
         <v>1243851</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J4"/>
       <c r="K4">
-        <v>4.5</v>
+        <v>7.25</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1027,28 +1042,31 @@
         <v>50392</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J5"/>
       <c r="K5">
         <v>5</v>
       </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -1060,30 +1078,33 @@
         <v>255416</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K6">
         <v>4</v>
       </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -1095,30 +1116,33 @@
         <v>76593</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7">
         <v>3.8999999999999999</v>
       </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1130,28 +1154,31 @@
         <v>168190</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J8"/>
       <c r="K8">
         <v>4.0999999999999996</v>
       </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D9">
         <v>25</v>
@@ -1163,30 +1190,33 @@
         <v>2460756</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9">
         <v>4.7000000000000002</v>
       </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1198,28 +1228,31 @@
         <v>50118</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J10"/>
       <c r="K10">
         <v>4.5999999999999996</v>
       </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -1231,30 +1264,33 @@
         <v>416274</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K11">
         <v>4.7000000000000002</v>
       </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1266,28 +1302,31 @@
         <v>147362</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J12"/>
       <c r="K12">
         <v>4.9000000000000004</v>
       </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D13">
         <v>15</v>
@@ -1299,30 +1338,33 @@
         <v>858575</v>
       </c>
       <c r="G13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K13">
         <v>4</v>
       </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D14">
         <v>18</v>
@@ -1334,30 +1376,33 @@
         <v>71054</v>
       </c>
       <c r="G14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14">
         <v>3.7000000000000002</v>
       </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1369,28 +1414,31 @@
         <v>15929</v>
       </c>
       <c r="G15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J15"/>
       <c r="K15">
         <v>4.2000000000000002</v>
       </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D16">
         <v>12</v>
@@ -1402,30 +1450,33 @@
         <v>242087</v>
       </c>
       <c r="G16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K16">
         <v>3.6000000000000001</v>
       </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1437,28 +1488,31 @@
         <v>48970</v>
       </c>
       <c r="G17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J17"/>
       <c r="K17">
         <v>4.2999999999999998</v>
       </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D18">
         <v>7</v>
@@ -1470,30 +1524,33 @@
         <v>749916</v>
       </c>
       <c r="G18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K18">
         <v>4.7000000000000002</v>
       </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D19">
         <v>7</v>
@@ -1505,30 +1562,33 @@
         <v>474407</v>
       </c>
       <c r="G19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K19">
         <v>4</v>
       </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -1540,30 +1600,33 @@
         <v>108050</v>
       </c>
       <c r="G20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K20">
         <v>4.0999999999999996</v>
       </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D21">
         <v>7</v>
@@ -1575,30 +1638,33 @@
         <v>854961</v>
       </c>
       <c r="G21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K21">
         <v>3</v>
       </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D22">
         <v>5</v>
@@ -1610,30 +1676,33 @@
         <v>54298</v>
       </c>
       <c r="G22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K22">
         <v>3.5</v>
       </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D23">
         <v>12</v>
@@ -1645,28 +1714,31 @@
         <v>541285</v>
       </c>
       <c r="G23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J23"/>
       <c r="K23">
         <v>4</v>
       </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1678,28 +1750,31 @@
         <v>47724</v>
       </c>
       <c r="G24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J24"/>
       <c r="K24">
         <v>4.5999999999999996</v>
       </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -1711,28 +1786,31 @@
         <v>149883</v>
       </c>
       <c r="G25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J25"/>
       <c r="K25">
         <v>4.2000000000000002</v>
       </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -1744,28 +1822,31 @@
         <v>2708492</v>
       </c>
       <c r="G26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J26"/>
       <c r="K26">
         <v>4.9000000000000004</v>
       </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -1777,28 +1858,31 @@
         <v>273830</v>
       </c>
       <c r="G27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J27"/>
       <c r="K27">
         <v>4.5999999999999996</v>
       </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D28">
         <v>6</v>
@@ -1810,30 +1894,33 @@
         <v>892568</v>
       </c>
       <c r="G28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K28">
         <v>4</v>
       </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B29" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C29" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D29">
         <v>12</v>
@@ -1845,28 +1932,31 @@
         <v>106018</v>
       </c>
       <c r="G29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H29" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I29" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J29"/>
       <c r="K29">
         <v>3.8999999999999999</v>
       </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B30" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C30" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -1878,28 +1968,31 @@
         <v>463303</v>
       </c>
       <c r="G30" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J30"/>
       <c r="K30">
         <v>4</v>
       </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B31" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C31" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1911,17 +2004,20 @@
         <v>9361</v>
       </c>
       <c r="G31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H31" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I31" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J31"/>
       <c r="K31">
         <v>4.2000000000000002</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/FinalProject/bin/Debug/Data.xlsx
+++ b/FinalProject/bin/Debug/Data.xlsx
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>245978</v>
+        <v>245979</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -944,7 +944,7 @@
         <v>17</v>
       </c>
       <c r="K2">
-        <v>6.25</v>
+        <v>6.6666666660000002</v>
       </c>
       <c r="L2">
         <v>2</v>
@@ -1039,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>50392</v>
+        <v>50393</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -1113,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>76593</v>
+        <v>76594</v>
       </c>
       <c r="G7" t="s">
         <v>42</v>
@@ -2001,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>9361</v>
+        <v>9362</v>
       </c>
       <c r="G31" t="s">
         <v>166</v>

--- a/FinalProject/bin/Debug/Data.xlsx
+++ b/FinalProject/bin/Debug/Data.xlsx
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>245978</v>
+        <v>245979</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -944,10 +944,10 @@
         <v>17</v>
       </c>
       <c r="K2">
-        <v>6.25</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -980,10 +980,10 @@
       </c>
       <c r="J3"/>
       <c r="K3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">

--- a/FinalProject/bin/Debug/Data.xlsx
+++ b/FinalProject/bin/Debug/Data.xlsx
@@ -944,10 +944,10 @@
         <v>17</v>
       </c>
       <c r="K2">
-        <v>6.6666666660000002</v>
+        <v>7.0999999999999996</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">

--- a/FinalProject/bin/Debug/Data.xlsx
+++ b/FinalProject/bin/Debug/Data.xlsx
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>245979</v>
+        <v>245980</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>

--- a/FinalProject/bin/Debug/Data.xlsx
+++ b/FinalProject/bin/Debug/Data.xlsx
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>245979</v>
+        <v>245981</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -967,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>52785</v>
+        <v>52788</v>
       </c>
       <c r="G3" t="s">
         <v>20</v>
@@ -980,10 +980,10 @@
       </c>
       <c r="J3"/>
       <c r="K3">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1243851</v>
+        <v>1243852</v>
       </c>
       <c r="G4" t="s">
         <v>25</v>
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>416274</v>
+        <v>416275</v>
       </c>
       <c r="G11" t="s">
         <v>63</v>
@@ -1747,7 +1747,7 @@
         <v>1</v>
       </c>
       <c r="F24">
-        <v>47724</v>
+        <v>47725</v>
       </c>
       <c r="G24" t="s">
         <v>79</v>

--- a/FinalProject/bin/Debug/Data.xlsx
+++ b/FinalProject/bin/Debug/Data.xlsx
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1243852</v>
+        <v>1243854</v>
       </c>
       <c r="G4" t="s">
         <v>25</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2460756</v>
+        <v>2460757</v>
       </c>
       <c r="G9" t="s">
         <v>53</v>

--- a/FinalProject/bin/Debug/Data.xlsx
+++ b/FinalProject/bin/Debug/Data.xlsx
@@ -947,7 +947,7 @@
         <v>7.0999999999999996</v>
       </c>
       <c r="L2">
-        <v>3</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3">
@@ -983,7 +983,7 @@
         <v>4</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4">
@@ -1019,7 +1019,7 @@
         <v>7.25</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5">
@@ -1055,7 +1055,7 @@
         <v>5</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6">
@@ -1069,7 +1069,7 @@
         <v>34</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>4</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7">
@@ -1107,7 +1107,7 @@
         <v>41</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1131,7 +1131,7 @@
         <v>3.8999999999999999</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
@@ -1167,7 +1167,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9">
@@ -1205,7 +1205,7 @@
         <v>4.7000000000000002</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
@@ -1238,10 +1238,10 @@
       </c>
       <c r="J10"/>
       <c r="K10">
-        <v>4.5999999999999996</v>
+        <v>7.2999999999999998</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
@@ -1279,7 +1279,7 @@
         <v>4.7000000000000002</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12">
@@ -1315,7 +1315,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13">
@@ -1353,7 +1353,7 @@
         <v>4</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14">
@@ -1391,7 +1391,7 @@
         <v>3.7000000000000002</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15">
@@ -1427,7 +1427,7 @@
         <v>4.2000000000000002</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16">
@@ -1465,7 +1465,7 @@
         <v>3.6000000000000001</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17">
@@ -1501,7 +1501,7 @@
         <v>4.2999999999999998</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18">
@@ -1539,7 +1539,7 @@
         <v>4.7000000000000002</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
@@ -1577,7 +1577,7 @@
         <v>4</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
@@ -1615,7 +1615,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21">
@@ -1653,7 +1653,7 @@
         <v>3</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22">
@@ -1691,7 +1691,7 @@
         <v>3.5</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23">
@@ -1727,7 +1727,7 @@
         <v>4</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24">
@@ -1763,7 +1763,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25">
@@ -1799,7 +1799,7 @@
         <v>4.2000000000000002</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
@@ -1835,7 +1835,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27">
@@ -1871,7 +1871,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28">
@@ -1909,7 +1909,7 @@
         <v>4</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29">
@@ -1945,7 +1945,7 @@
         <v>3.8999999999999999</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30">
@@ -1981,7 +1981,7 @@
         <v>4</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31">
@@ -2017,7 +2017,7 @@
         <v>4.2000000000000002</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/FinalProject/bin/Debug/Data.xlsx
+++ b/FinalProject/bin/Debug/Data.xlsx
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>108050</v>
+        <v>108051</v>
       </c>
       <c r="G20" t="s">
         <v>112</v>

--- a/FinalProject/bin/Debug/Data.xlsx
+++ b/FinalProject/bin/Debug/Data.xlsx
@@ -1151,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>168190</v>
+        <v>168192</v>
       </c>
       <c r="G8" t="s">
         <v>48</v>

--- a/FinalProject/bin/Debug/Data.xlsx
+++ b/FinalProject/bin/Debug/Data.xlsx
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>245979</v>
+        <v>245982</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1243851</v>
+        <v>1243853</v>
       </c>
       <c r="G4" t="s">
         <v>25</v>
@@ -1039,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>50393</v>
+        <v>50394</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -1055,7 +1055,7 @@
         <v>5</v>
       </c>
       <c r="L5">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6">
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>416274</v>
+        <v>416275</v>
       </c>
       <c r="G11" t="s">
         <v>63</v>
@@ -1485,7 +1485,7 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>48970</v>
+        <v>48971</v>
       </c>
       <c r="G17" t="s">
         <v>98</v>
@@ -1536,10 +1536,10 @@
         <v>104</v>
       </c>
       <c r="K18">
-        <v>4.7000000000000002</v>
+        <v>4.7999999999999998</v>
       </c>
       <c r="L18">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19">
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>474407</v>
+        <v>474408</v>
       </c>
       <c r="G19" t="s">
         <v>108</v>
